--- a/MainDatabase/MainDatabase.xlsx
+++ b/MainDatabase/MainDatabase.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -58,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +127,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +213,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,14 +424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1016"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="N783" sqref="N783"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +477,12 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1">
+        <f>IF(M1&lt;L1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8238</v>
       </c>
@@ -498,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8877</v>
       </c>
@@ -539,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9151</v>
       </c>
@@ -580,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12792</v>
       </c>
@@ -621,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8356</v>
       </c>
@@ -662,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8457</v>
       </c>
@@ -703,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9068</v>
       </c>
@@ -744,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10026</v>
       </c>
@@ -785,7 +810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8513</v>
       </c>
@@ -826,7 +851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8942</v>
       </c>
@@ -864,10 +889,10 @@
         <v>22</v>
       </c>
       <c r="M11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8881</v>
       </c>
@@ -908,7 +933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12539</v>
       </c>
@@ -949,7 +974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10430</v>
       </c>
@@ -990,7 +1015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8451</v>
       </c>
@@ -1031,7 +1056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8446</v>
       </c>
@@ -1072,7 +1097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9061</v>
       </c>
@@ -1113,7 +1138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9579</v>
       </c>
@@ -1154,7 +1179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8141</v>
       </c>
@@ -1195,7 +1220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8420</v>
       </c>
@@ -1236,7 +1261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8537</v>
       </c>
@@ -1277,7 +1302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11873</v>
       </c>
@@ -1318,7 +1343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9744</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8693</v>
       </c>
@@ -1400,7 +1425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9907</v>
       </c>
@@ -1441,7 +1466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8147</v>
       </c>
@@ -1482,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8434</v>
       </c>
@@ -1523,7 +1548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11331</v>
       </c>
@@ -1564,7 +1589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9123</v>
       </c>
@@ -1605,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9730</v>
       </c>
@@ -1646,7 +1671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12620</v>
       </c>
@@ -1687,7 +1712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8708</v>
       </c>
@@ -1728,7 +1753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9069</v>
       </c>
@@ -1769,7 +1794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8415</v>
       </c>
@@ -1807,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="M34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8879</v>
       </c>
@@ -1851,7 +1876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9962</v>
       </c>
@@ -1892,7 +1917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9395</v>
       </c>
@@ -1933,7 +1958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9110</v>
       </c>
@@ -1971,10 +1996,10 @@
         <v>42</v>
       </c>
       <c r="M38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9393</v>
       </c>
@@ -2015,7 +2040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9703</v>
       </c>
@@ -2056,7 +2081,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8229</v>
       </c>
@@ -2097,7 +2122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12522</v>
       </c>
@@ -2138,7 +2163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12562</v>
       </c>
@@ -2179,7 +2204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12595</v>
       </c>
@@ -2220,7 +2245,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12797</v>
       </c>
@@ -2261,7 +2286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11412</v>
       </c>
@@ -2299,10 +2324,14 @@
         <v>22</v>
       </c>
       <c r="M46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>14</v>
+      </c>
+      <c r="N46" t="e">
+        <f>IF(AM&lt;AN,0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9371</v>
       </c>
@@ -2343,7 +2372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11804</v>
       </c>
@@ -2384,7 +2413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12896</v>
       </c>
@@ -2425,7 +2454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11130</v>
       </c>
@@ -2466,7 +2495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8919</v>
       </c>
@@ -2507,7 +2536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9709</v>
       </c>
@@ -2548,7 +2577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11410</v>
       </c>
@@ -2589,7 +2618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12787</v>
       </c>
@@ -2630,7 +2659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8681</v>
       </c>
@@ -2671,7 +2700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9943</v>
       </c>
@@ -2712,7 +2741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9960</v>
       </c>
@@ -2753,7 +2782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8202</v>
       </c>
@@ -2794,7 +2823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12626</v>
       </c>
@@ -2835,7 +2864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8219</v>
       </c>
@@ -2876,7 +2905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8883</v>
       </c>
@@ -2917,7 +2946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8854</v>
       </c>
@@ -2958,7 +2987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12874</v>
       </c>
@@ -2999,7 +3028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9118</v>
       </c>
@@ -3040,7 +3069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9575</v>
       </c>
@@ -3081,7 +3110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10382</v>
       </c>
@@ -3122,7 +3151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12753</v>
       </c>
@@ -3163,7 +3192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10138</v>
       </c>
@@ -3201,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9456</v>
       </c>
@@ -3245,7 +3274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8653</v>
       </c>
@@ -3286,7 +3315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11406</v>
       </c>
@@ -3327,7 +3356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9425</v>
       </c>
@@ -3368,7 +3397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11450</v>
       </c>
@@ -3406,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9755</v>
       </c>
@@ -3450,7 +3479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8470</v>
       </c>
@@ -3491,7 +3520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9732</v>
       </c>
@@ -3532,7 +3561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10001</v>
       </c>
@@ -3573,7 +3602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8431</v>
       </c>
@@ -3614,7 +3643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>9023</v>
       </c>
@@ -3655,7 +3684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10347</v>
       </c>
@@ -3696,7 +3725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9552</v>
       </c>
@@ -3737,7 +3766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9729</v>
       </c>
@@ -3778,7 +3807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8272</v>
       </c>
@@ -3819,7 +3848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9431</v>
       </c>
@@ -3860,7 +3889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12512</v>
       </c>
@@ -3901,7 +3930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8489</v>
       </c>
@@ -3942,7 +3971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9923</v>
       </c>
@@ -3983,7 +4012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9817</v>
       </c>
@@ -4024,7 +4053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9936</v>
       </c>
@@ -4062,10 +4091,10 @@
         <v>21</v>
       </c>
       <c r="M89">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10154</v>
       </c>
@@ -4106,7 +4135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8135</v>
       </c>
@@ -4147,7 +4176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8902</v>
       </c>
@@ -4188,7 +4217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11084</v>
       </c>
@@ -4226,10 +4255,10 @@
         <v>14</v>
       </c>
       <c r="M93">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>11166</v>
       </c>
@@ -4270,7 +4299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>12810</v>
       </c>
@@ -4311,7 +4340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9074</v>
       </c>
@@ -4352,7 +4381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>12800</v>
       </c>
@@ -4393,7 +4422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9596</v>
       </c>
@@ -4434,7 +4463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9961</v>
       </c>
@@ -4475,7 +4504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10194</v>
       </c>
@@ -4516,7 +4545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8678</v>
       </c>
@@ -4557,7 +4586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>8522</v>
       </c>
@@ -4598,7 +4627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>9711</v>
       </c>
@@ -4639,7 +4668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>8934</v>
       </c>
@@ -4680,7 +4709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9904</v>
       </c>
@@ -4718,10 +4747,10 @@
         <v>40</v>
       </c>
       <c r="M105">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9928</v>
       </c>
@@ -4762,7 +4791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11448</v>
       </c>
@@ -4803,7 +4832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8468</v>
       </c>
@@ -4844,7 +4873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11341</v>
       </c>
@@ -4885,7 +4914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>8703</v>
       </c>
@@ -4923,10 +4952,10 @@
         <v>15</v>
       </c>
       <c r="M110">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>9404</v>
       </c>
@@ -4967,7 +4996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8385</v>
       </c>
@@ -5008,7 +5037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8887</v>
       </c>
@@ -5049,7 +5078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10451</v>
       </c>
@@ -5090,7 +5119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>8761</v>
       </c>
@@ -5131,7 +5160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10162</v>
       </c>
@@ -5172,7 +5201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>11163</v>
       </c>
@@ -5213,7 +5242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11857</v>
       </c>
@@ -5254,7 +5283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12771</v>
       </c>
@@ -5295,7 +5324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9814</v>
       </c>
@@ -5336,7 +5365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>8333</v>
       </c>
@@ -5377,7 +5406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12820</v>
       </c>
@@ -5418,7 +5447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12604</v>
       </c>
@@ -5456,10 +5485,10 @@
         <v>26</v>
       </c>
       <c r="M123">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>11899</v>
       </c>
@@ -5500,7 +5529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>11436</v>
       </c>
@@ -5541,7 +5570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>10022</v>
       </c>
@@ -5582,7 +5611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9519</v>
       </c>
@@ -5623,7 +5652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>11139</v>
       </c>
@@ -5664,7 +5693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>11082</v>
       </c>
@@ -5702,10 +5731,10 @@
         <v>4</v>
       </c>
       <c r="M129">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8196</v>
       </c>
@@ -5746,7 +5775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10413</v>
       </c>
@@ -5787,7 +5816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8651</v>
       </c>
@@ -5828,7 +5857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8661</v>
       </c>
@@ -5869,7 +5898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>8134</v>
       </c>
@@ -5910,7 +5939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8868</v>
       </c>
@@ -5951,7 +5980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9758</v>
       </c>
@@ -5992,7 +6021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>8347</v>
       </c>
@@ -6033,7 +6062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8374</v>
       </c>
@@ -6074,7 +6103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11072</v>
       </c>
@@ -6115,7 +6144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12518</v>
       </c>
@@ -6156,7 +6185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>8922</v>
       </c>
@@ -6197,7 +6226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>9414</v>
       </c>
@@ -6238,7 +6267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>8946</v>
       </c>
@@ -6279,7 +6308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>9780</v>
       </c>
@@ -6320,7 +6349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10153</v>
       </c>
@@ -6361,7 +6390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8438</v>
       </c>
@@ -6402,7 +6431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>8698</v>
       </c>
@@ -6443,7 +6472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8723</v>
       </c>
@@ -6484,7 +6513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>9359</v>
       </c>
@@ -6525,7 +6554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>9403</v>
       </c>
@@ -6566,7 +6595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>11431</v>
       </c>
@@ -6607,7 +6636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>12567</v>
       </c>
@@ -6648,7 +6677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>9776</v>
       </c>
@@ -6689,7 +6718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8706</v>
       </c>
@@ -6730,7 +6759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>11067</v>
       </c>
@@ -6771,7 +6800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10023</v>
       </c>
@@ -6812,7 +6841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>9381</v>
       </c>
@@ -6853,7 +6882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9982</v>
       </c>
@@ -6894,7 +6923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8274</v>
       </c>
@@ -6935,7 +6964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8436</v>
       </c>
@@ -6976,7 +7005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>9029</v>
       </c>
@@ -7017,7 +7046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>9941</v>
       </c>
@@ -7058,7 +7087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8234</v>
       </c>
@@ -7099,7 +7128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8674</v>
       </c>
@@ -7140,7 +7169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>9548</v>
       </c>
@@ -7181,7 +7210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11379</v>
       </c>
@@ -7222,7 +7251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8700</v>
       </c>
@@ -7263,7 +7292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10337</v>
       </c>
@@ -7304,7 +7333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>9385</v>
       </c>
@@ -7345,7 +7374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11343</v>
       </c>
@@ -7386,7 +7415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9445</v>
       </c>
@@ -7427,7 +7456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>11152</v>
       </c>
@@ -7468,7 +7497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10354</v>
       </c>
@@ -7509,7 +7538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8213</v>
       </c>
@@ -7550,7 +7579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11846</v>
       </c>
@@ -7591,7 +7620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>12760</v>
       </c>
@@ -7632,7 +7661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9084</v>
       </c>
@@ -7673,7 +7702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10342</v>
       </c>
@@ -7714,7 +7743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>11118</v>
       </c>
@@ -7755,7 +7784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>11415</v>
       </c>
@@ -7796,7 +7825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11827</v>
       </c>
@@ -7837,7 +7866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9334</v>
       </c>
@@ -7878,7 +7907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>12887</v>
       </c>
@@ -7919,7 +7948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>12578</v>
       </c>
@@ -7960,7 +7989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>10202</v>
       </c>
@@ -8001,7 +8030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9767</v>
       </c>
@@ -8042,7 +8071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9781</v>
       </c>
@@ -8083,7 +8112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8928</v>
       </c>
@@ -8124,7 +8153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9631</v>
       </c>
@@ -8165,7 +8194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8460</v>
       </c>
@@ -8206,7 +8235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>10189</v>
       </c>
@@ -8247,7 +8276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>12852</v>
       </c>
@@ -8288,7 +8317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9370</v>
       </c>
@@ -8329,7 +8358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8640</v>
       </c>
@@ -8370,7 +8399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>12825</v>
       </c>
@@ -8411,7 +8440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9356</v>
       </c>
@@ -8452,7 +8481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9702</v>
       </c>
@@ -8493,7 +8522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10014</v>
       </c>
@@ -8534,7 +8563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11191</v>
       </c>
@@ -8575,7 +8604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10454</v>
       </c>
@@ -8616,7 +8645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>11383</v>
       </c>
@@ -8657,7 +8686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>12862</v>
       </c>
@@ -8695,10 +8724,10 @@
         <v>23</v>
       </c>
       <c r="M202">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>12552</v>
       </c>
@@ -8739,7 +8768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>12755</v>
       </c>
@@ -8780,7 +8809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>9595</v>
       </c>
@@ -8821,7 +8850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>8450</v>
       </c>
@@ -8862,7 +8891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>12618</v>
       </c>
@@ -8903,7 +8932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9367</v>
       </c>
@@ -8944,7 +8973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10427</v>
       </c>
@@ -8985,7 +9014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>12529</v>
       </c>
@@ -9026,7 +9055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>8743</v>
       </c>
@@ -9067,7 +9096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11060</v>
       </c>
@@ -9108,7 +9137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9997</v>
       </c>
@@ -9149,7 +9178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9794</v>
       </c>
@@ -9190,7 +9219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>8944</v>
       </c>
@@ -9231,7 +9260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>10193</v>
       </c>
@@ -9272,7 +9301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9115</v>
       </c>
@@ -9313,7 +9342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>9623</v>
       </c>
@@ -9354,7 +9383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>10392</v>
       </c>
@@ -9395,7 +9424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12544</v>
       </c>
@@ -9436,7 +9465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12559</v>
       </c>
@@ -9477,7 +9506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12860</v>
       </c>
@@ -9518,7 +9547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>9690</v>
       </c>
@@ -9559,7 +9588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12864</v>
       </c>
@@ -9600,7 +9629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10340</v>
       </c>
@@ -9641,7 +9670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>10443</v>
       </c>
@@ -9682,7 +9711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>9910</v>
       </c>
@@ -9723,7 +9752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>12574</v>
       </c>
@@ -9764,7 +9793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>12556</v>
       </c>
@@ -9805,7 +9834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>11335</v>
       </c>
@@ -9846,7 +9875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>12606</v>
       </c>
@@ -9887,7 +9916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>9454</v>
       </c>
@@ -9928,7 +9957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>9773</v>
       </c>
@@ -9969,7 +9998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>9762</v>
       </c>
@@ -10010,7 +10039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>9976</v>
       </c>
@@ -10051,7 +10080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8154</v>
       </c>
@@ -10092,7 +10121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8263</v>
       </c>
@@ -10133,7 +10162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8734</v>
       </c>
@@ -10174,7 +10203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>9420</v>
       </c>
@@ -10215,7 +10244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>9778</v>
       </c>
@@ -10256,7 +10285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>9351</v>
       </c>
@@ -10297,7 +10326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11116</v>
       </c>
@@ -10338,7 +10367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11832</v>
       </c>
@@ -10379,7 +10408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>12763</v>
       </c>
@@ -10420,7 +10449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>8541</v>
       </c>
@@ -10461,7 +10490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>8663</v>
       </c>
@@ -10502,7 +10531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11398</v>
       </c>
@@ -10543,7 +10572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>10157</v>
       </c>
@@ -10584,7 +10613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>8724</v>
       </c>
@@ -10625,7 +10654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>10426</v>
       </c>
@@ -10663,10 +10692,10 @@
         <v>31</v>
       </c>
       <c r="M250">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>9572</v>
       </c>
@@ -10707,7 +10736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>12830</v>
       </c>
@@ -10748,7 +10777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>8837</v>
       </c>
@@ -10789,7 +10818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>12526</v>
       </c>
@@ -10830,7 +10859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>8267</v>
       </c>
@@ -10871,7 +10900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>8704</v>
       </c>
@@ -10912,7 +10941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>9518</v>
       </c>
@@ -10953,7 +10982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>10336</v>
       </c>
@@ -10994,7 +11023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>12837</v>
       </c>
@@ -11035,7 +11064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11169</v>
       </c>
@@ -11076,7 +11105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>8188</v>
       </c>
@@ -11117,7 +11146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11359</v>
       </c>
@@ -11158,7 +11187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>9906</v>
       </c>
@@ -11199,7 +11228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11865</v>
       </c>
@@ -11240,7 +11269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>9963</v>
       </c>
@@ -11281,7 +11310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>9071</v>
       </c>
@@ -11322,7 +11351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>12527</v>
       </c>
@@ -11363,7 +11392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>9799</v>
       </c>
@@ -11404,7 +11433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>12849</v>
       </c>
@@ -11445,7 +11474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>9937</v>
       </c>
@@ -11486,7 +11515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>8317</v>
       </c>
@@ -11527,7 +11556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11816</v>
       </c>
@@ -11568,7 +11597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>10375</v>
       </c>
@@ -11609,7 +11638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>8835</v>
       </c>
@@ -11650,7 +11679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>9139</v>
       </c>
@@ -11691,7 +11720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>11855</v>
       </c>
@@ -11732,7 +11761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>12590</v>
       </c>
@@ -11773,7 +11802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>8892</v>
       </c>
@@ -11814,7 +11843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>11893</v>
       </c>
@@ -11855,7 +11884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>11833</v>
       </c>
@@ -11896,7 +11925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10345</v>
       </c>
@@ -11937,7 +11966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>9098</v>
       </c>
@@ -11978,7 +12007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>8286</v>
       </c>
@@ -12019,7 +12048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>11112</v>
       </c>
@@ -12060,7 +12089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>9903</v>
       </c>
@@ -12101,7 +12130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>8308</v>
       </c>
@@ -12142,7 +12171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>9435</v>
       </c>
@@ -12183,7 +12212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>11332</v>
       </c>
@@ -12224,7 +12253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>12548</v>
       </c>
@@ -12265,7 +12294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>9389</v>
       </c>
@@ -12306,7 +12335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>8501</v>
       </c>
@@ -12347,7 +12376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>9617</v>
       </c>
@@ -12388,7 +12417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>11135</v>
       </c>
@@ -12429,7 +12458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>10368</v>
       </c>
@@ -12470,7 +12499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>8199</v>
       </c>
@@ -12511,7 +12540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>8266</v>
       </c>
@@ -12552,7 +12581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>8950</v>
       </c>
@@ -12593,7 +12622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>9092</v>
       </c>
@@ -12634,7 +12663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>9510</v>
       </c>
@@ -12675,7 +12704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>9991</v>
       </c>
@@ -12716,7 +12745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>8456</v>
       </c>
@@ -12757,7 +12786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>9366</v>
       </c>
@@ -12798,7 +12827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>11149</v>
       </c>
@@ -12836,10 +12865,10 @@
         <v>18</v>
       </c>
       <c r="M303">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>8306</v>
       </c>
@@ -12880,7 +12909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>9506</v>
       </c>
@@ -12921,7 +12950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>8746</v>
       </c>
@@ -12962,7 +12991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>12523</v>
       </c>
@@ -13003,7 +13032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>12828</v>
       </c>
@@ -13044,7 +13073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>9728</v>
       </c>
@@ -13085,7 +13114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>11091</v>
       </c>
@@ -13126,7 +13155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>8411</v>
       </c>
@@ -13167,7 +13196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>9082</v>
       </c>
@@ -13205,10 +13234,10 @@
         <v>19</v>
       </c>
       <c r="M312">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>10373</v>
       </c>
@@ -13249,7 +13278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>9752</v>
       </c>
@@ -13290,7 +13319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>9965</v>
       </c>
@@ -13331,7 +13360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>11154</v>
       </c>
@@ -13372,7 +13401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>9584</v>
       </c>
@@ -13413,7 +13442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>9101</v>
       </c>
@@ -13454,7 +13483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>11442</v>
       </c>
@@ -13495,7 +13524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>12545</v>
       </c>
@@ -13536,7 +13565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8652</v>
       </c>
@@ -13577,7 +13606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>8515</v>
       </c>
@@ -13618,7 +13647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>9607</v>
       </c>
@@ -13659,7 +13688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>10125</v>
       </c>
@@ -13700,7 +13729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>11392</v>
       </c>
@@ -13741,7 +13770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>11109</v>
       </c>
@@ -13782,7 +13811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>8253</v>
       </c>
@@ -13823,7 +13852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>8936</v>
       </c>
@@ -13864,7 +13893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>9566</v>
       </c>
@@ -13905,7 +13934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>9638</v>
       </c>
@@ -13946,7 +13975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>8533</v>
       </c>
@@ -13987,7 +14016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>10438</v>
       </c>
@@ -14028,7 +14057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>11058</v>
       </c>
@@ -14069,7 +14098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>11394</v>
       </c>
@@ -14110,7 +14139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>8432</v>
       </c>
@@ -14151,7 +14180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>9035</v>
       </c>
@@ -14192,7 +14221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>9760</v>
       </c>
@@ -14233,7 +14262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>8365</v>
       </c>
@@ -14274,7 +14303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>9914</v>
       </c>
@@ -14315,7 +14344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>8855</v>
       </c>
@@ -14356,7 +14385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>11376</v>
       </c>
@@ -14397,7 +14426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>9987</v>
       </c>
@@ -14438,7 +14467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>9581</v>
       </c>
@@ -14479,7 +14508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>9052</v>
       </c>
@@ -14520,7 +14549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>8190</v>
       </c>
@@ -14561,7 +14590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>11428</v>
       </c>
@@ -14602,7 +14631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>8270</v>
       </c>
@@ -14643,7 +14672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>9951</v>
       </c>
@@ -14684,7 +14713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>9132</v>
       </c>
@@ -14725,7 +14754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>12768</v>
       </c>
@@ -14766,7 +14795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>9094</v>
       </c>
@@ -14807,7 +14836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>9083</v>
       </c>
@@ -14848,7 +14877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>9102</v>
       </c>
@@ -14889,7 +14918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>9772</v>
       </c>
@@ -14930,7 +14959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>9625</v>
       </c>
@@ -14971,7 +15000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>10363</v>
       </c>
@@ -15009,10 +15038,10 @@
         <v>42</v>
       </c>
       <c r="M356">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>8163</v>
       </c>
@@ -15053,7 +15082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>9028</v>
       </c>
@@ -15094,7 +15123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>12900</v>
       </c>
@@ -15135,7 +15164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>8845</v>
       </c>
@@ -15176,7 +15205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>8359</v>
       </c>
@@ -15217,7 +15246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>11890</v>
       </c>
@@ -15258,7 +15287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>12844</v>
       </c>
@@ -15299,7 +15328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>8916</v>
       </c>
@@ -15340,7 +15369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>10216</v>
       </c>
@@ -15381,7 +15410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>8321</v>
       </c>
@@ -15422,7 +15451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>9096</v>
       </c>
@@ -15463,7 +15492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>11361</v>
       </c>
@@ -15504,7 +15533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>12521</v>
       </c>
@@ -15545,7 +15574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>8531</v>
       </c>
@@ -15586,7 +15615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>12623</v>
       </c>
@@ -15627,7 +15656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>8709</v>
       </c>
@@ -15668,7 +15697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>9971</v>
       </c>
@@ -15709,7 +15738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>10398</v>
       </c>
@@ -15747,10 +15776,10 @@
         <v>32</v>
       </c>
       <c r="M374">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>8536</v>
       </c>
@@ -15791,7 +15820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>8225</v>
       </c>
@@ -15832,7 +15861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>11177</v>
       </c>
@@ -15873,7 +15902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>12547</v>
       </c>
@@ -15914,7 +15943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>8312</v>
       </c>
@@ -15955,7 +15984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>9818</v>
       </c>
@@ -15996,7 +16025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>10017</v>
       </c>
@@ -16037,7 +16066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>11449</v>
       </c>
@@ -16078,7 +16107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>11105</v>
       </c>
@@ -16119,7 +16148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>8371</v>
       </c>
@@ -16160,7 +16189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>11807</v>
       </c>
@@ -16201,7 +16230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>9149</v>
       </c>
@@ -16242,7 +16271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>12615</v>
       </c>
@@ -16283,7 +16312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>10119</v>
       </c>
@@ -16324,7 +16353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>8686</v>
       </c>
@@ -16365,7 +16394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>10470</v>
       </c>
@@ -16406,7 +16435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>8387</v>
       </c>
@@ -16447,7 +16476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>10009</v>
       </c>
@@ -16488,7 +16517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>9535</v>
       </c>
@@ -16529,7 +16558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>10471</v>
       </c>
@@ -16567,10 +16596,10 @@
         <v>25</v>
       </c>
       <c r="M394">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>12869</v>
       </c>
@@ -16611,7 +16640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>8695</v>
       </c>
@@ -16652,7 +16681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>8503</v>
       </c>
@@ -16693,7 +16722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>9736</v>
       </c>
@@ -16734,7 +16763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>11400</v>
       </c>
@@ -16775,7 +16804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>12533</v>
       </c>
@@ -16816,7 +16845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>12568</v>
       </c>
@@ -16857,7 +16886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>9520</v>
       </c>
@@ -16898,7 +16927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>8143</v>
       </c>
@@ -16939,7 +16968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>11356</v>
       </c>
@@ -16980,7 +17009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>8487</v>
       </c>
@@ -17021,7 +17050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:13">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>8367</v>
       </c>
@@ -17062,7 +17091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:13">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>12530</v>
       </c>
@@ -17103,7 +17132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>10139</v>
       </c>
@@ -17144,7 +17173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:13">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>11147</v>
       </c>
@@ -17185,7 +17214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>8477</v>
       </c>
@@ -17226,7 +17255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8512</v>
       </c>
@@ -17267,7 +17296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:13">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>8671</v>
       </c>
@@ -17308,7 +17337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="413" spans="1:13">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>11844</v>
       </c>
@@ -17346,10 +17375,10 @@
         <v>41</v>
       </c>
       <c r="M413">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>9544</v>
       </c>
@@ -17390,7 +17419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>9787</v>
       </c>
@@ -17431,7 +17460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="1:13">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>11339</v>
       </c>
@@ -17472,7 +17501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="417" spans="1:13">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>8849</v>
       </c>
@@ -17513,7 +17542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:13">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>9527</v>
       </c>
@@ -17554,7 +17583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:13">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>8383</v>
       </c>
@@ -17595,7 +17624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="420" spans="1:13">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>8207</v>
       </c>
@@ -17636,7 +17665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:13">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>8748</v>
       </c>
@@ -17677,7 +17706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:13">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>9133</v>
       </c>
@@ -17718,7 +17747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8344</v>
       </c>
@@ -17759,7 +17788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9354</v>
       </c>
@@ -17800,7 +17829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>8169</v>
       </c>
@@ -17841,7 +17870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>10432</v>
       </c>
@@ -17882,7 +17911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>8483</v>
       </c>
@@ -17923,7 +17952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>9411</v>
       </c>
@@ -17964,7 +17993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="429" spans="1:13">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>10467</v>
       </c>
@@ -18005,7 +18034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="1:13">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>12831</v>
       </c>
@@ -18043,10 +18072,10 @@
         <v>25</v>
       </c>
       <c r="M430">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>11144</v>
       </c>
@@ -18087,7 +18116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:13">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>8156</v>
       </c>
@@ -18128,7 +18157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9641</v>
       </c>
@@ -18169,7 +18198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>8521</v>
       </c>
@@ -18210,7 +18239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>8414</v>
       </c>
@@ -18251,7 +18280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>9080</v>
       </c>
@@ -18292,7 +18321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>10204</v>
       </c>
@@ -18333,7 +18362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>8260</v>
       </c>
@@ -18374,7 +18403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>8362</v>
       </c>
@@ -18415,7 +18444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>8713</v>
       </c>
@@ -18456,7 +18485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10365</v>
       </c>
@@ -18497,7 +18526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>9735</v>
       </c>
@@ -18538,7 +18567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>11353</v>
       </c>
@@ -18579,7 +18608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>8150</v>
       </c>
@@ -18620,7 +18649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>11906</v>
       </c>
@@ -18661,7 +18690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>12621</v>
       </c>
@@ -18702,7 +18731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>9377</v>
       </c>
@@ -18743,7 +18772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>9121</v>
       </c>
@@ -18784,7 +18813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>9551</v>
       </c>
@@ -18825,7 +18854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>8740</v>
       </c>
@@ -18866,7 +18895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>11868</v>
       </c>
@@ -18907,7 +18936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>9973</v>
       </c>
@@ -18948,7 +18977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>9614</v>
       </c>
@@ -18989,7 +19018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>9764</v>
       </c>
@@ -19030,7 +19059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>8443</v>
       </c>
@@ -19071,7 +19100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>9606</v>
       </c>
@@ -19112,7 +19141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>8376</v>
       </c>
@@ -19153,7 +19182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>9957</v>
       </c>
@@ -19194,7 +19223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>10130</v>
       </c>
@@ -19235,7 +19264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>10385</v>
       </c>
@@ -19276,7 +19305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>8913</v>
       </c>
@@ -19317,7 +19346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>11824</v>
       </c>
@@ -19358,7 +19387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>9927</v>
       </c>
@@ -19399,7 +19428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>8672</v>
       </c>
@@ -19440,7 +19469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>9340</v>
       </c>
@@ -19481,7 +19510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>9620</v>
       </c>
@@ -19522,7 +19551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>8244</v>
       </c>
@@ -19563,7 +19592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>11180</v>
       </c>
@@ -19604,7 +19633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>9931</v>
       </c>
@@ -19645,7 +19674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>11896</v>
       </c>
@@ -19686,7 +19715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="471" spans="1:13">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8310</v>
       </c>
@@ -19727,7 +19756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>9532</v>
       </c>
@@ -19768,7 +19797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="473" spans="1:13">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>10000</v>
       </c>
@@ -19809,7 +19838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="474" spans="1:13">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>12580</v>
       </c>
@@ -19850,7 +19879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="475" spans="1:13">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>11437</v>
       </c>
@@ -19891,7 +19920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="476" spans="1:13">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>11145</v>
       </c>
@@ -19932,7 +19961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:13">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>12833</v>
       </c>
@@ -19973,7 +20002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:13">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>9803</v>
       </c>
@@ -20014,7 +20043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="479" spans="1:13">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>8898</v>
       </c>
@@ -20055,7 +20084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="480" spans="1:13">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>8543</v>
       </c>
@@ -20096,7 +20125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="481" spans="1:13">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>11823</v>
       </c>
@@ -20137,7 +20166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="482" spans="1:13">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>8400</v>
       </c>
@@ -20178,7 +20207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="483" spans="1:13">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>8638</v>
       </c>
@@ -20219,7 +20248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="484" spans="1:13">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>12809</v>
       </c>
@@ -20257,10 +20286,10 @@
         <v>30</v>
       </c>
       <c r="M484">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="485" spans="1:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>12609</v>
       </c>
@@ -20301,7 +20330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="486" spans="1:13">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>9777</v>
       </c>
@@ -20342,7 +20371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:13">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>11121</v>
       </c>
@@ -20383,7 +20412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="488" spans="1:13">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>12861</v>
       </c>
@@ -20424,7 +20453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:13">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>9757</v>
       </c>
@@ -20465,7 +20494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="490" spans="1:13">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>8860</v>
       </c>
@@ -20506,7 +20535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="491" spans="1:13">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>11054</v>
       </c>
@@ -20547,7 +20576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:13">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>11132</v>
       </c>
@@ -20588,7 +20617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="493" spans="1:13">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>9816</v>
       </c>
@@ -20629,7 +20658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:13">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>11884</v>
       </c>
@@ -20670,7 +20699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="495" spans="1:13">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>11886</v>
       </c>
@@ -20711,7 +20740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:13">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>10165</v>
       </c>
@@ -20752,7 +20781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:13">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>9450</v>
       </c>
@@ -20793,7 +20822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:13">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>10400</v>
       </c>
@@ -20831,10 +20860,10 @@
         <v>31</v>
       </c>
       <c r="M498">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="499" spans="1:13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>11872</v>
       </c>
@@ -20875,7 +20904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="500" spans="1:13">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10417</v>
       </c>
@@ -20913,10 +20942,10 @@
         <v>29</v>
       </c>
       <c r="M500">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="501" spans="1:13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>12560</v>
       </c>
@@ -20957,7 +20986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="502" spans="1:13">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>8690</v>
       </c>
@@ -20998,7 +21027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:13">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>10350</v>
       </c>
@@ -21039,7 +21068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="504" spans="1:13">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>12880</v>
       </c>
@@ -21080,7 +21109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="505" spans="1:13">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>8337</v>
       </c>
@@ -21121,7 +21150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:13">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>8532</v>
       </c>
@@ -21162,7 +21191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:13">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>8182</v>
       </c>
@@ -21203,7 +21232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="508" spans="1:13">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>12879</v>
       </c>
@@ -21244,7 +21273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="509" spans="1:13">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>9925</v>
       </c>
@@ -21285,7 +21314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="510" spans="1:13">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>9600</v>
       </c>
@@ -21326,7 +21355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>11063</v>
       </c>
@@ -21367,7 +21396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="512" spans="1:13">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>9335</v>
       </c>
@@ -21408,7 +21437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:13">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>11175</v>
       </c>
@@ -21449,7 +21478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="514" spans="1:13">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>8466</v>
       </c>
@@ -21490,7 +21519,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="515" spans="1:13">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>9635</v>
       </c>
@@ -21531,7 +21560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="516" spans="1:13">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>9766</v>
       </c>
@@ -21572,7 +21601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="517" spans="1:13">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>11889</v>
       </c>
@@ -21613,7 +21642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="518" spans="1:13">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>8398</v>
       </c>
@@ -21654,7 +21683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="519" spans="1:13">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>8471</v>
       </c>
@@ -21695,7 +21724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="520" spans="1:13">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>9440</v>
       </c>
@@ -21736,7 +21765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>12601</v>
       </c>
@@ -21777,7 +21806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="522" spans="1:13">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>9049</v>
       </c>
@@ -21818,7 +21847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:13">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>9507</v>
       </c>
@@ -21859,7 +21888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>8699</v>
       </c>
@@ -21900,7 +21929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="525" spans="1:13">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>10112</v>
       </c>
@@ -21941,7 +21970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:13">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>10185</v>
       </c>
@@ -21982,7 +22011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:13">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>8193</v>
       </c>
@@ -22023,7 +22052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:13">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>8648</v>
       </c>
@@ -22064,7 +22093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>10212</v>
       </c>
@@ -22105,7 +22134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>10449</v>
       </c>
@@ -22146,7 +22175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:13">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>12867</v>
       </c>
@@ -22187,7 +22216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:13">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>8496</v>
       </c>
@@ -22228,7 +22257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="533" spans="1:13">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>8248</v>
       </c>
@@ -22269,7 +22298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="1:13">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>8886</v>
       </c>
@@ -22310,7 +22339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="535" spans="1:13">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>8861</v>
       </c>
@@ -22351,7 +22380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="536" spans="1:13">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>8753</v>
       </c>
@@ -22392,7 +22421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="537" spans="1:13">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>12780</v>
       </c>
@@ -22433,7 +22462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="538" spans="1:13">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>11140</v>
       </c>
@@ -22474,7 +22503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="539" spans="1:13">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>9391</v>
       </c>
@@ -22515,7 +22544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:13">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>9386</v>
       </c>
@@ -22556,7 +22585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="541" spans="1:13">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>9591</v>
       </c>
@@ -22597,7 +22626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="542" spans="1:13">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>9503</v>
       </c>
@@ -22638,7 +22667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:13">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>11159</v>
       </c>
@@ -22679,7 +22708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>8839</v>
       </c>
@@ -22720,7 +22749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="545" spans="1:13">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>8927</v>
       </c>
@@ -22761,7 +22790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="546" spans="1:13">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>10343</v>
       </c>
@@ -22802,7 +22831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="547" spans="1:13">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>11348</v>
       </c>
@@ -22843,7 +22872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="548" spans="1:13">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>10435</v>
       </c>
@@ -22884,7 +22913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:13">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>8437</v>
       </c>
@@ -22925,7 +22954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="550" spans="1:13">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>11902</v>
       </c>
@@ -22966,7 +22995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="551" spans="1:13">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>9811</v>
       </c>
@@ -23007,7 +23036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>10378</v>
       </c>
@@ -23048,7 +23077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>8731</v>
       </c>
@@ -23089,7 +23118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="554" spans="1:13">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>12543</v>
       </c>
@@ -23130,7 +23159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="555" spans="1:13">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>8711</v>
       </c>
@@ -23171,7 +23200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="556" spans="1:13">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>11156</v>
       </c>
@@ -23212,7 +23241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:13">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>11405</v>
       </c>
@@ -23253,7 +23282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:13">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>11096</v>
       </c>
@@ -23294,7 +23323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:13">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>9466</v>
       </c>
@@ -23335,7 +23364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:13">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>9815</v>
       </c>
@@ -23376,7 +23405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:13">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>10203</v>
       </c>
@@ -23417,7 +23446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="562" spans="1:13">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>8905</v>
       </c>
@@ -23458,7 +23487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="563" spans="1:13">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>8677</v>
       </c>
@@ -23499,7 +23528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="564" spans="1:13">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>9349</v>
       </c>
@@ -23540,7 +23569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="565" spans="1:13">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>11433</v>
       </c>
@@ -23581,7 +23610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="566" spans="1:13">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>8518</v>
       </c>
@@ -23622,7 +23651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="567" spans="1:13">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>9522</v>
       </c>
@@ -23663,7 +23692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="568" spans="1:13">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>12822</v>
       </c>
@@ -23704,7 +23733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:13">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>8735</v>
       </c>
@@ -23742,10 +23771,10 @@
         <v>13</v>
       </c>
       <c r="M569">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="570" spans="1:13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>10465</v>
       </c>
@@ -23786,7 +23815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="571" spans="1:13">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>12784</v>
       </c>
@@ -23827,7 +23856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="572" spans="1:13">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>11386</v>
       </c>
@@ -23868,7 +23897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="573" spans="1:13">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>9040</v>
       </c>
@@ -23909,7 +23938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="574" spans="1:13">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>9934</v>
       </c>
@@ -23950,7 +23979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="575" spans="1:13">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>10353</v>
       </c>
@@ -23991,7 +24020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="576" spans="1:13">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>12576</v>
       </c>
@@ -24032,7 +24061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="577" spans="1:13">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>11841</v>
       </c>
@@ -24073,7 +24102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:13">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>9111</v>
       </c>
@@ -24114,7 +24143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="579" spans="1:13">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>12764</v>
       </c>
@@ -24155,7 +24184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="580" spans="1:13">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>12793</v>
       </c>
@@ -24196,7 +24225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="581" spans="1:13">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>9374</v>
       </c>
@@ -24237,7 +24266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="582" spans="1:13">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>10172</v>
       </c>
@@ -24278,7 +24307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="583" spans="1:13">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>11881</v>
       </c>
@@ -24319,7 +24348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="584" spans="1:13">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>8305</v>
       </c>
@@ -24360,7 +24389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="585" spans="1:13">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>8368</v>
       </c>
@@ -24401,7 +24430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="586" spans="1:13">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>9704</v>
       </c>
@@ -24439,10 +24468,10 @@
         <v>19</v>
       </c>
       <c r="M586">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="587" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>11869</v>
       </c>
@@ -24483,7 +24512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="588" spans="1:13">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>10359</v>
       </c>
@@ -24524,7 +24553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="589" spans="1:13">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>8453</v>
       </c>
@@ -24565,7 +24594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="590" spans="1:13">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>8465</v>
       </c>
@@ -24606,7 +24635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>8454</v>
       </c>
@@ -24647,7 +24676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>9967</v>
       </c>
@@ -24688,7 +24717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="593" spans="1:13">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>11186</v>
       </c>
@@ -24729,7 +24758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="594" spans="1:13">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>11192</v>
       </c>
@@ -24770,7 +24799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="595" spans="1:13">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>9127</v>
       </c>
@@ -24811,7 +24840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="596" spans="1:13">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>8151</v>
       </c>
@@ -24852,7 +24881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="597" spans="1:13">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>9627</v>
       </c>
@@ -24893,7 +24922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="598" spans="1:13">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>11810</v>
       </c>
@@ -24934,7 +24963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="599" spans="1:13">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>8843</v>
       </c>
@@ -24972,10 +25001,10 @@
         <v>24</v>
       </c>
       <c r="M599">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="600" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>9726</v>
       </c>
@@ -25016,7 +25045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="601" spans="1:13">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>11851</v>
       </c>
@@ -25057,7 +25086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="602" spans="1:13">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>12868</v>
       </c>
@@ -25098,7 +25127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="603" spans="1:13">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>10462</v>
       </c>
@@ -25139,7 +25168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="604" spans="1:13">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>8391</v>
       </c>
@@ -25180,7 +25209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="605" spans="1:13">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>12541</v>
       </c>
@@ -25218,10 +25247,10 @@
         <v>38</v>
       </c>
       <c r="M605">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="606" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>8349</v>
       </c>
@@ -25262,7 +25291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="607" spans="1:13">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>9048</v>
       </c>
@@ -25303,7 +25332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="608" spans="1:13">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>10474</v>
       </c>
@@ -25344,7 +25373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="609" spans="1:13">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>9737</v>
       </c>
@@ -25385,7 +25414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="610" spans="1:13">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>12791</v>
       </c>
@@ -25423,10 +25452,10 @@
         <v>16</v>
       </c>
       <c r="M610">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="611" spans="1:13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>9153</v>
       </c>
@@ -25467,7 +25496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="612" spans="1:13">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>9791</v>
       </c>
@@ -25508,7 +25537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="613" spans="1:13">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>12553</v>
       </c>
@@ -25549,7 +25578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="614" spans="1:13">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>8232</v>
       </c>
@@ -25590,7 +25619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="615" spans="1:13">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>8382</v>
       </c>
@@ -25631,7 +25660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="616" spans="1:13">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>8828</v>
       </c>
@@ -25672,7 +25701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>8200</v>
       </c>
@@ -25713,7 +25742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="618" spans="1:13">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>9344</v>
       </c>
@@ -25754,7 +25783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="619" spans="1:13">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>11837</v>
       </c>
@@ -25795,7 +25824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="620" spans="1:13">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>10005</v>
       </c>
@@ -25836,7 +25865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="621" spans="1:13">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>8180</v>
       </c>
@@ -25877,7 +25906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="622" spans="1:13">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>8888</v>
       </c>
@@ -25918,7 +25947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="623" spans="1:13">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>8363</v>
       </c>
@@ -25959,7 +25988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="624" spans="1:13">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>10150</v>
       </c>
@@ -26000,7 +26029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="625" spans="1:13">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>11344</v>
       </c>
@@ -26041,7 +26070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="626" spans="1:13">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>9640</v>
       </c>
@@ -26079,10 +26108,10 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="627" spans="1:13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>11866</v>
       </c>
@@ -26123,7 +26152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="1:13">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>11088</v>
       </c>
@@ -26164,7 +26193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:13">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>9984</v>
       </c>
@@ -26205,7 +26234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:13">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>8278</v>
       </c>
@@ -26246,7 +26275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="1:13">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>10411</v>
       </c>
@@ -26287,7 +26316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="632" spans="1:13">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>10170</v>
       </c>
@@ -26328,7 +26357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:13">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>8644</v>
       </c>
@@ -26369,7 +26398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:13">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>9089</v>
       </c>
@@ -26410,7 +26439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="635" spans="1:13">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>12612</v>
       </c>
@@ -26451,7 +26480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="636" spans="1:13">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>9144</v>
       </c>
@@ -26492,7 +26521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="637" spans="1:13">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>8269</v>
       </c>
@@ -26530,10 +26559,10 @@
         <v>25</v>
       </c>
       <c r="M637">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="638" spans="1:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>8755</v>
       </c>
@@ -26574,7 +26603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="639" spans="1:13">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>8683</v>
       </c>
@@ -26615,7 +26644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="640" spans="1:13">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>9525</v>
       </c>
@@ -26656,7 +26685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="641" spans="1:13">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>9612</v>
       </c>
@@ -26697,7 +26726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="642" spans="1:13">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>9644</v>
       </c>
@@ -26738,7 +26767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="643" spans="1:13">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>9970</v>
       </c>
@@ -26779,7 +26808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:13">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>9530</v>
       </c>
@@ -26820,7 +26849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="645" spans="1:13">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>9693</v>
       </c>
@@ -26861,7 +26890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="646" spans="1:13">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>10199</v>
       </c>
@@ -26902,7 +26931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:13">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>11182</v>
       </c>
@@ -26943,7 +26972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="648" spans="1:13">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>8721</v>
       </c>
@@ -26984,7 +27013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="649" spans="1:13">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>8945</v>
       </c>
@@ -27025,7 +27054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="650" spans="1:13">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>9974</v>
       </c>
@@ -27066,7 +27095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="651" spans="1:13">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>10007</v>
       </c>
@@ -27107,7 +27136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="652" spans="1:13">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>10020</v>
       </c>
@@ -27148,7 +27177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="653" spans="1:13">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>11087</v>
       </c>
@@ -27189,7 +27218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="654" spans="1:13">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>9126</v>
       </c>
@@ -27230,7 +27259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="1:13">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>11374</v>
       </c>
@@ -27271,7 +27300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:13">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>9109</v>
       </c>
@@ -27312,7 +27341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="1:13">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>10144</v>
       </c>
@@ -27353,7 +27382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="658" spans="1:13">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>10176</v>
       </c>
@@ -27394,7 +27423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="659" spans="1:13">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>11064</v>
       </c>
@@ -27435,7 +27464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="660" spans="1:13">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>11106</v>
       </c>
@@ -27476,7 +27505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="661" spans="1:13">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>9056</v>
       </c>
@@ -27517,7 +27546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:13">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>9406</v>
       </c>
@@ -27555,10 +27584,10 @@
         <v>40</v>
       </c>
       <c r="M662">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="663" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>9041</v>
       </c>
@@ -27599,7 +27628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="664" spans="1:13">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>9077</v>
       </c>
@@ -27640,7 +27669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="1:13">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>8907</v>
       </c>
@@ -27681,7 +27710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="666" spans="1:13">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>10168</v>
       </c>
@@ -27719,10 +27748,10 @@
         <v>36</v>
       </c>
       <c r="M666">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="667" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>10371</v>
       </c>
@@ -27763,7 +27792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="668" spans="1:13">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>10008</v>
       </c>
@@ -27804,7 +27833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="669" spans="1:13">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>11100</v>
       </c>
@@ -27845,7 +27874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="670" spans="1:13">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>8493</v>
       </c>
@@ -27886,7 +27915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="671" spans="1:13">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>12840</v>
       </c>
@@ -27927,7 +27956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="672" spans="1:13">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>8159</v>
       </c>
@@ -27968,7 +27997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="673" spans="1:13">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>9145</v>
       </c>
@@ -28009,7 +28038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="674" spans="1:13">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>8834</v>
       </c>
@@ -28050,7 +28079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="675" spans="1:13">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>8241</v>
       </c>
@@ -28091,7 +28120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="676" spans="1:13">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>9930</v>
       </c>
@@ -28132,7 +28161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="677" spans="1:13">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>12774</v>
       </c>
@@ -28173,7 +28202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="678" spans="1:13">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>12892</v>
       </c>
@@ -28214,7 +28243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="679" spans="1:13">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>8442</v>
       </c>
@@ -28255,7 +28284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="680" spans="1:13">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>8685</v>
       </c>
@@ -28296,7 +28325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="681" spans="1:13">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>11862</v>
       </c>
@@ -28337,7 +28366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="1:13">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>10384</v>
       </c>
@@ -28378,7 +28407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="683" spans="1:13">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>11854</v>
       </c>
@@ -28419,7 +28448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:13">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>12806</v>
       </c>
@@ -28460,7 +28489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="685" spans="1:13">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>12863</v>
       </c>
@@ -28501,7 +28530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="686" spans="1:13">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>10177</v>
       </c>
@@ -28542,7 +28571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="687" spans="1:13">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>8430</v>
       </c>
@@ -28583,7 +28612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="688" spans="1:13">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>10423</v>
       </c>
@@ -28624,7 +28653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="689" spans="1:13">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>11080</v>
       </c>
@@ -28665,7 +28694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:13">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>9968</v>
       </c>
@@ -28706,7 +28735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="691" spans="1:13">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>9463</v>
       </c>
@@ -28747,7 +28776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="692" spans="1:13">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>8302</v>
       </c>
@@ -28788,7 +28817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:13">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>8221</v>
       </c>
@@ -28829,7 +28858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="694" spans="1:13">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>8510</v>
       </c>
@@ -28870,7 +28899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="695" spans="1:13">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>10011</v>
       </c>
@@ -28911,7 +28940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="696" spans="1:13">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>8144</v>
       </c>
@@ -28952,7 +28981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="697" spans="1:13">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>10409</v>
       </c>
@@ -28993,7 +29022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="698" spans="1:13">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>9513</v>
       </c>
@@ -29034,7 +29063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:13">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>8379</v>
       </c>
@@ -29075,7 +29104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="700" spans="1:13">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>8328</v>
       </c>
@@ -29116,7 +29145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="701" spans="1:13">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>8901</v>
       </c>
@@ -29157,7 +29186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:13">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>9700</v>
       </c>
@@ -29198,7 +29227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="703" spans="1:13">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>11876</v>
       </c>
@@ -29239,7 +29268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="704" spans="1:13">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>8668</v>
       </c>
@@ -29280,7 +29309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="705" spans="1:13">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>11907</v>
       </c>
@@ -29321,7 +29350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="706" spans="1:13">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>12817</v>
       </c>
@@ -29362,7 +29391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="707" spans="1:13">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>12902</v>
       </c>
@@ -29403,7 +29432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="708" spans="1:13">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>9148</v>
       </c>
@@ -29444,7 +29473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="709" spans="1:13">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>11809</v>
       </c>
@@ -29485,7 +29514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="710" spans="1:13">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>9694</v>
       </c>
@@ -29526,7 +29555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="711" spans="1:13">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>8160</v>
       </c>
@@ -29567,7 +29596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="712" spans="1:13">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>12785</v>
       </c>
@@ -29608,7 +29637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="713" spans="1:13">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>12889</v>
       </c>
@@ -29649,7 +29678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="714" spans="1:13">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>11382</v>
       </c>
@@ -29690,7 +29719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="715" spans="1:13">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>8680</v>
       </c>
@@ -29731,7 +29760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="716" spans="1:13">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>8742</v>
       </c>
@@ -29772,7 +29801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="717" spans="1:13">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>8732</v>
       </c>
@@ -29813,7 +29842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="718" spans="1:13">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>8862</v>
       </c>
@@ -29854,7 +29883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="719" spans="1:13">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>9409</v>
       </c>
@@ -29895,7 +29924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:13">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>8137</v>
       </c>
@@ -29936,7 +29965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="721" spans="1:13">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>8176</v>
       </c>
@@ -29977,7 +30006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="722" spans="1:13">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>10160</v>
       </c>
@@ -30018,7 +30047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="723" spans="1:13">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>11859</v>
       </c>
@@ -30059,7 +30088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="724" spans="1:13">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>9569</v>
       </c>
@@ -30100,7 +30129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="725" spans="1:13">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>10401</v>
       </c>
@@ -30141,7 +30170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="726" spans="1:13">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>9442</v>
       </c>
@@ -30182,7 +30211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="727" spans="1:13">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>9347</v>
       </c>
@@ -30223,7 +30252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="728" spans="1:13">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>10105</v>
       </c>
@@ -30264,7 +30293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="729" spans="1:13">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>11076</v>
       </c>
@@ -30305,7 +30334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="730" spans="1:13">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>12592</v>
       </c>
@@ -30346,7 +30375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="731" spans="1:13">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>12586</v>
       </c>
@@ -30387,7 +30416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="732" spans="1:13">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>9790</v>
       </c>
@@ -30428,7 +30457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="733" spans="1:13">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>10329</v>
       </c>
@@ -30469,7 +30498,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="734" spans="1:13">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>9954</v>
       </c>
@@ -30510,7 +30539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="735" spans="1:13">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>11110</v>
       </c>
@@ -30551,7 +30580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="736" spans="1:13">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>9597</v>
       </c>
@@ -30592,7 +30621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="737" spans="1:13">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>12572</v>
       </c>
@@ -30633,7 +30662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="738" spans="1:13">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>9119</v>
       </c>
@@ -30674,7 +30703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="739" spans="1:13">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>9585</v>
       </c>
@@ -30715,7 +30744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="740" spans="1:13">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>8525</v>
       </c>
@@ -30756,7 +30785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="741" spans="1:13">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>9113</v>
       </c>
@@ -30797,7 +30826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="742" spans="1:13">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>8716</v>
       </c>
@@ -30838,7 +30867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="743" spans="1:13">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>9628</v>
       </c>
@@ -30879,7 +30908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="744" spans="1:13">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>9399</v>
       </c>
@@ -30920,7 +30949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="745" spans="1:13">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>11409</v>
       </c>
@@ -30961,7 +30990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="746" spans="1:13">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>9802</v>
       </c>
@@ -31002,7 +31031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="747" spans="1:13">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>10117</v>
       </c>
@@ -31043,7 +31072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="748" spans="1:13">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>11416</v>
       </c>
@@ -31084,7 +31113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="749" spans="1:13">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>9448</v>
       </c>
@@ -31125,7 +31154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="750" spans="1:13">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>11445</v>
       </c>
@@ -31166,7 +31195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="751" spans="1:13">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>9555</v>
       </c>
@@ -31207,7 +31236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="752" spans="1:13">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>9033</v>
       </c>
@@ -31248,7 +31277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="753" spans="1:13">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>8481</v>
       </c>
@@ -31289,7 +31318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="754" spans="1:13">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>10171</v>
       </c>
@@ -31330,7 +31359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="755" spans="1:13">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>10115</v>
       </c>
@@ -31371,7 +31400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="756" spans="1:13">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>8645</v>
       </c>
@@ -31412,7 +31441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="757" spans="1:13">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>9978</v>
       </c>
@@ -31453,7 +31482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" spans="1:13">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>8931</v>
       </c>
@@ -31494,7 +31523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="759" spans="1:13">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>10132</v>
       </c>
@@ -31535,7 +31564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="760" spans="1:13">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>8128</v>
       </c>
@@ -31576,7 +31605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="761" spans="1:13">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>8131</v>
       </c>
@@ -31617,7 +31646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="762" spans="1:13">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>8246</v>
       </c>
@@ -31658,7 +31687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="763" spans="1:13">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>8255</v>
       </c>
@@ -31699,7 +31728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="764" spans="1:13">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>8665</v>
       </c>
@@ -31740,7 +31769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="765" spans="1:13">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>9917</v>
       </c>
@@ -31781,7 +31810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="766" spans="1:13">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>10174</v>
       </c>
@@ -31822,7 +31851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="767" spans="1:13">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>8910</v>
       </c>
@@ -31863,7 +31892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="768" spans="1:13">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>11454</v>
       </c>
@@ -31904,7 +31933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="769" spans="1:13">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>9432</v>
       </c>
@@ -31945,7 +31974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="770" spans="1:13">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>8440</v>
       </c>
@@ -31986,7 +32015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="771" spans="1:13">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>8373</v>
       </c>
@@ -32027,7 +32056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="772" spans="1:13">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>10142</v>
       </c>
@@ -32068,7 +32097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="773" spans="1:13">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>9402</v>
       </c>
@@ -32109,7 +32138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="774" spans="1:13">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>8636</v>
       </c>
@@ -32150,7 +32179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="775" spans="1:13">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>11078</v>
       </c>
@@ -32191,7 +32220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="776" spans="1:13">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>10457</v>
       </c>
@@ -32232,7 +32261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="777" spans="1:13">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>9042</v>
       </c>
@@ -32273,7 +32302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="778" spans="1:13">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>11903</v>
       </c>
@@ -32314,7 +32343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="779" spans="1:13">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>12877</v>
       </c>
@@ -32355,7 +32384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:13">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>8727</v>
       </c>
@@ -32396,7 +32425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="781" spans="1:13">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>12575</v>
       </c>
@@ -32437,7 +32466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="782" spans="1:13">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>9104</v>
       </c>
@@ -32478,7 +32507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="783" spans="1:13">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>8370</v>
       </c>
@@ -32519,7 +32548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="784" spans="1:13">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>9472</v>
       </c>
@@ -32560,7 +32589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="785" spans="1:13">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>10197</v>
       </c>
@@ -32601,7 +32630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="786" spans="1:13">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>11074</v>
       </c>
@@ -32642,7 +32671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="787" spans="1:13">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>9387</v>
       </c>
@@ -32680,10 +32709,10 @@
         <v>43</v>
       </c>
       <c r="M787">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="788" spans="1:13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>11124</v>
       </c>
@@ -32724,7 +32753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="789" spans="1:13">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>11137</v>
       </c>
@@ -32765,7 +32794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="790" spans="1:13">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>9142</v>
       </c>
@@ -32806,7 +32835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="791" spans="1:13">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>10209</v>
       </c>
@@ -32847,7 +32876,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="792" spans="1:13">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>12883</v>
       </c>
@@ -32888,7 +32917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="793" spans="1:13">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>8396</v>
       </c>
@@ -32929,7 +32958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="794" spans="1:13">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>10033</v>
       </c>
@@ -32970,7 +32999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="795" spans="1:13">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>11395</v>
       </c>
@@ -33011,7 +33040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="796" spans="1:13">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>8655</v>
       </c>
@@ -33052,7 +33081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="797" spans="1:13">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>9706</v>
       </c>
@@ -33093,7 +33122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="798" spans="1:13">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>8738</v>
       </c>
@@ -33134,7 +33163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="799" spans="1:13">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>9031</v>
       </c>
@@ -33175,7 +33204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="800" spans="1:13">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>10182</v>
       </c>
@@ -33216,7 +33245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="801" spans="1:13">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>12804</v>
       </c>
@@ -33257,7 +33286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="802" spans="1:13">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>11861</v>
       </c>
@@ -33298,7 +33327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="803" spans="1:13">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>11878</v>
       </c>
@@ -33339,7 +33368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="804" spans="1:13">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>12794</v>
       </c>
@@ -33380,7 +33409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="805" spans="1:13">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>9742</v>
       </c>
@@ -33421,7 +33450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="806" spans="1:13">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>12897</v>
       </c>
@@ -33462,7 +33491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="807" spans="1:13">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>8223</v>
       </c>
@@ -33503,7 +33532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="808" spans="1:13">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>8170</v>
       </c>
@@ -33544,7 +33573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="809" spans="1:13">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>8498</v>
       </c>
@@ -33585,7 +33614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="810" spans="1:13">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>8830</v>
       </c>
@@ -33626,7 +33655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="811" spans="1:13">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>8925</v>
       </c>
@@ -33667,7 +33696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="812" spans="1:13">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>11895</v>
       </c>
@@ -33708,7 +33737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="813" spans="1:13">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>10421</v>
       </c>
@@ -33749,7 +33778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="814" spans="1:13">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>11819</v>
       </c>
@@ -33790,7 +33819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="815" spans="1:13">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>10148</v>
       </c>
@@ -33831,7 +33860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="816" spans="1:13">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>8236</v>
       </c>
@@ -33872,7 +33901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="817" spans="1:13">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>8405</v>
       </c>
@@ -33913,7 +33942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="818" spans="1:13">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>11393</v>
       </c>
@@ -33954,7 +33983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="819" spans="1:13">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>8353</v>
       </c>
@@ -33995,7 +34024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="820" spans="1:13">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>12846</v>
       </c>
@@ -34036,7 +34065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="821" spans="1:13">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>8377</v>
       </c>
@@ -34077,7 +34106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="822" spans="1:13">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>10414</v>
       </c>
@@ -34118,7 +34147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="823" spans="1:13">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>12855</v>
       </c>
@@ -34159,7 +34188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="824" spans="1:13">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>8435</v>
       </c>
@@ -34200,7 +34229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="825" spans="1:13">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>11189</v>
       </c>
@@ -34241,7 +34270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="826" spans="1:13">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>10460</v>
       </c>
@@ -34282,7 +34311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="827" spans="1:13">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>11424</v>
       </c>
@@ -34323,7 +34352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="828" spans="1:13">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>8547</v>
       </c>
@@ -34364,7 +34393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="829" spans="1:13">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>8325</v>
       </c>
@@ -34405,7 +34434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="830" spans="1:13">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>9057</v>
       </c>
@@ -34446,7 +34475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="831" spans="1:13">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>9059</v>
       </c>
@@ -34487,7 +34516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="832" spans="1:13">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>11101</v>
       </c>
@@ -34528,7 +34557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="833" spans="1:13">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>11892</v>
       </c>
@@ -34569,7 +34598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="834" spans="1:13">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>8181</v>
       </c>
@@ -34610,7 +34639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="835" spans="1:13">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>10027</v>
       </c>
@@ -34651,7 +34680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="836" spans="1:13">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>10346</v>
       </c>
@@ -34692,7 +34721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="837" spans="1:13">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>9358</v>
       </c>
@@ -34733,7 +34762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="838" spans="1:13">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>8185</v>
       </c>
@@ -34774,7 +34803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="839" spans="1:13">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>9980</v>
       </c>
@@ -34815,7 +34844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="840" spans="1:13">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>10473</v>
       </c>
@@ -34856,7 +34885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="841" spans="1:13">
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>12824</v>
       </c>
@@ -34897,7 +34926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="842" spans="1:13">
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>8281</v>
       </c>
@@ -34938,7 +34967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="843" spans="1:13">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>12555</v>
       </c>
@@ -34979,7 +35008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="844" spans="1:13">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>10377</v>
       </c>
@@ -35020,7 +35049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="845" spans="1:13">
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>9130</v>
       </c>
@@ -35061,7 +35090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="846" spans="1:13">
+    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>8637</v>
       </c>
@@ -35102,7 +35131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="847" spans="1:13">
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>11842</v>
       </c>
@@ -35143,7 +35172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="848" spans="1:13">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>9336</v>
       </c>
@@ -35184,7 +35213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="849" spans="1:13">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>9462</v>
       </c>
@@ -35225,7 +35254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="850" spans="1:13">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>10201</v>
       </c>
@@ -35266,7 +35295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="851" spans="1:13">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>8865</v>
       </c>
@@ -35307,7 +35336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="852" spans="1:13">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>11363</v>
       </c>
@@ -35348,7 +35377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="853" spans="1:13">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>8687</v>
       </c>
@@ -35389,7 +35418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="854" spans="1:13">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>9740</v>
       </c>
@@ -35430,7 +35459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="855" spans="1:13">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>9911</v>
       </c>
@@ -35471,7 +35500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="856" spans="1:13">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>11402</v>
       </c>
@@ -35512,7 +35541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="857" spans="1:13">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>11438</v>
       </c>
@@ -35553,7 +35582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="858" spans="1:13">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>9331</v>
       </c>
@@ -35594,7 +35623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="859" spans="1:13">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>9561</v>
       </c>
@@ -35635,7 +35664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="860" spans="1:13">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>8478</v>
       </c>
@@ -35676,7 +35705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="861" spans="1:13">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>9916</v>
       </c>
@@ -35717,7 +35746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="862" spans="1:13">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>10331</v>
       </c>
@@ -35758,7 +35787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="863" spans="1:13">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>11829</v>
       </c>
@@ -35799,7 +35828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="864" spans="1:13">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>12815</v>
       </c>
@@ -35840,7 +35869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="865" spans="1:13">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>9749</v>
       </c>
@@ -35881,7 +35910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="866" spans="1:13">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>11369</v>
       </c>
@@ -35922,7 +35951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="867" spans="1:13">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>9717</v>
       </c>
@@ -35963,7 +35992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="868" spans="1:13">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>8138</v>
       </c>
@@ -36004,7 +36033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="869" spans="1:13">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>8184</v>
       </c>
@@ -36045,7 +36074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="870" spans="1:13">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>9341</v>
       </c>
@@ -36086,7 +36115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="871" spans="1:13">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>12857</v>
       </c>
@@ -36127,7 +36156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="872" spans="1:13">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>8318</v>
       </c>
@@ -36168,7 +36197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="873" spans="1:13">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>12885</v>
       </c>
@@ -36209,7 +36238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="874" spans="1:13">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>9994</v>
       </c>
@@ -36250,7 +36279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="875" spans="1:13">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>8409</v>
       </c>
@@ -36291,7 +36320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="876" spans="1:13">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>11095</v>
       </c>
@@ -36332,7 +36361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="877" spans="1:13">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>8949</v>
       </c>
@@ -36373,7 +36402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="878" spans="1:13">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>8424</v>
       </c>
@@ -36414,7 +36443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="879" spans="1:13">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>9417</v>
       </c>
@@ -36455,7 +36484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="880" spans="1:13">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>11085</v>
       </c>
@@ -36496,7 +36525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="881" spans="1:13">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>8422</v>
       </c>
@@ -36537,7 +36566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="882" spans="1:13">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>12891</v>
       </c>
@@ -36578,7 +36607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="883" spans="1:13">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>9045</v>
       </c>
@@ -36619,7 +36648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="884" spans="1:13">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>8658</v>
       </c>
@@ -36660,7 +36689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="885" spans="1:13">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>9577</v>
       </c>
@@ -36701,7 +36730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="886" spans="1:13">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>10109</v>
       </c>
@@ -36742,7 +36771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="887" spans="1:13">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>9796</v>
       </c>
@@ -36783,7 +36812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="888" spans="1:13">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>8506</v>
       </c>
@@ -36824,7 +36853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="889" spans="1:13">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>12777</v>
       </c>
@@ -36865,7 +36894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="890" spans="1:13">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>8930</v>
       </c>
@@ -36906,7 +36935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="891" spans="1:13">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>9505</v>
       </c>
@@ -36947,7 +36976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="892" spans="1:13">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>9106</v>
       </c>
@@ -36988,7 +37017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="893" spans="1:13">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>8417</v>
       </c>
@@ -37029,7 +37058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="894" spans="1:13">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>9379</v>
       </c>
@@ -37070,7 +37099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="895" spans="1:13">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>8331</v>
       </c>
@@ -37111,7 +37140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="896" spans="1:13">
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>9805</v>
       </c>
@@ -37152,7 +37181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="897" spans="1:13">
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>10332</v>
       </c>
@@ -37193,7 +37222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="898" spans="1:13">
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>10215</v>
       </c>
@@ -37234,7 +37263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="899" spans="1:13">
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>12803</v>
       </c>
@@ -37275,7 +37304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="900" spans="1:13">
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>11909</v>
       </c>
@@ -37316,7 +37345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="901" spans="1:13">
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>9975</v>
       </c>
@@ -37357,7 +37386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="902" spans="1:13">
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>10391</v>
       </c>
@@ -37398,7 +37427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="903" spans="1:13">
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>8257</v>
       </c>
@@ -37439,7 +37468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="904" spans="1:13">
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>8167</v>
       </c>
@@ -37480,7 +37509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="905" spans="1:13">
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>11838</v>
       </c>
@@ -37521,7 +37550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="906" spans="1:13">
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>8863</v>
       </c>
@@ -37562,7 +37591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="907" spans="1:13">
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>8853</v>
       </c>
@@ -37603,7 +37632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="908" spans="1:13">
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>11422</v>
       </c>
@@ -37644,7 +37673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="909" spans="1:13">
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>10360</v>
       </c>
@@ -37685,7 +37714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="910" spans="1:13">
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>9423</v>
       </c>
@@ -37726,7 +37755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="911" spans="1:13">
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>9720</v>
       </c>
@@ -37767,7 +37796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="912" spans="1:13">
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>8871</v>
       </c>
@@ -37808,7 +37837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="913" spans="1:13">
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>8280</v>
       </c>
@@ -37849,7 +37878,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="914" spans="1:13">
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>8226</v>
       </c>
@@ -37890,7 +37919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="915" spans="1:13">
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>11350</v>
       </c>
@@ -37931,7 +37960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="916" spans="1:13">
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>9590</v>
       </c>
@@ -37972,7 +38001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="917" spans="1:13">
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>9339</v>
       </c>
@@ -38013,7 +38042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="918" spans="1:13">
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>11093</v>
       </c>
@@ -38054,7 +38083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="919" spans="1:13">
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>11820</v>
       </c>
@@ -38095,7 +38124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="920" spans="1:13">
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>8259</v>
       </c>
@@ -38136,7 +38165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="921" spans="1:13">
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>9136</v>
       </c>
@@ -38177,7 +38206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="922" spans="1:13">
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>8205</v>
       </c>
@@ -38218,7 +38247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="923" spans="1:13">
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>9593</v>
       </c>
@@ -38259,7 +38288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="924" spans="1:13">
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>9067</v>
       </c>
@@ -38300,7 +38329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="925" spans="1:13">
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>9342</v>
       </c>
@@ -38341,7 +38370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="926" spans="1:13">
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>8684</v>
       </c>
@@ -38382,7 +38411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="927" spans="1:13">
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>11183</v>
       </c>
@@ -38423,7 +38452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="928" spans="1:13">
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>12842</v>
       </c>
@@ -38464,7 +38493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="929" spans="1:13">
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>8216</v>
       </c>
@@ -38505,7 +38534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="930" spans="1:13">
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>12789</v>
       </c>
@@ -38546,7 +38575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="931" spans="1:13">
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>11113</v>
       </c>
@@ -38587,7 +38616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="932" spans="1:13">
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>8741</v>
       </c>
@@ -38628,7 +38657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="933" spans="1:13">
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>11372</v>
       </c>
@@ -38669,7 +38698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="934" spans="1:13">
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>10406</v>
       </c>
@@ -38710,7 +38739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="935" spans="1:13">
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>8408</v>
       </c>
@@ -38751,7 +38780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="936" spans="1:13">
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>11845</v>
       </c>
@@ -38792,7 +38821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="937" spans="1:13">
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>8157</v>
       </c>
@@ -38833,7 +38862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="938" spans="1:13">
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>8858</v>
       </c>
@@ -38874,7 +38903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="939" spans="1:13">
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>11143</v>
       </c>
@@ -38915,7 +38944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="940" spans="1:13">
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>8126</v>
       </c>
@@ -38956,7 +38985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="941" spans="1:13">
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>8719</v>
       </c>
@@ -38997,7 +39026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="942" spans="1:13">
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>8647</v>
       </c>
@@ -39038,7 +39067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="943" spans="1:13">
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>9541</v>
       </c>
@@ -39079,7 +39108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="944" spans="1:13">
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>12564</v>
       </c>
@@ -39120,7 +39149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="945" spans="1:13">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>9025</v>
       </c>
@@ -39161,7 +39190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="946" spans="1:13">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>11418</v>
       </c>
@@ -39202,7 +39231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="947" spans="1:13">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>8827</v>
       </c>
@@ -39243,7 +39272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="948" spans="1:13">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>12766</v>
       </c>
@@ -39284,7 +39313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="949" spans="1:13">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>10122</v>
       </c>
@@ -39325,7 +39354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="950" spans="1:13">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>10410</v>
       </c>
@@ -39366,7 +39395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="951" spans="1:13">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>11443</v>
       </c>
@@ -39407,7 +39436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="952" spans="1:13">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>8509</v>
       </c>
@@ -39448,7 +39477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="953" spans="1:13">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>10326</v>
       </c>
@@ -39489,7 +39518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="954" spans="1:13">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>9363</v>
       </c>
@@ -39530,7 +39559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="955" spans="1:13">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>12611</v>
       </c>
@@ -39571,7 +39600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="956" spans="1:13">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>11108</v>
       </c>
@@ -39612,7 +39641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="957" spans="1:13">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>11103</v>
       </c>
@@ -39653,7 +39682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="958" spans="1:13">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>12582</v>
       </c>
@@ -39694,7 +39723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="959" spans="1:13">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>11055</v>
       </c>
@@ -39735,7 +39764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="960" spans="1:13">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>10388</v>
       </c>
@@ -39776,7 +39805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="961" spans="1:13">
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>12551</v>
       </c>
@@ -39817,7 +39846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="962" spans="1:13">
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>11421</v>
       </c>
@@ -39858,7 +39887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="963" spans="1:13">
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>8729</v>
       </c>
@@ -39899,7 +39928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="964" spans="1:13">
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>8848</v>
       </c>
@@ -39940,7 +39969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="965" spans="1:13">
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>9588</v>
       </c>
@@ -39981,7 +40010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="966" spans="1:13">
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>11146</v>
       </c>
@@ -40022,7 +40051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="967" spans="1:13">
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>8390</v>
       </c>
@@ -40063,7 +40092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="968" spans="1:13">
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>9592</v>
       </c>
@@ -40104,7 +40133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="969" spans="1:13">
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>10103</v>
       </c>
@@ -40145,7 +40174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="970" spans="1:13">
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>9819</v>
       </c>
@@ -40186,7 +40215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="971" spans="1:13">
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>8474</v>
       </c>
@@ -40227,7 +40256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="972" spans="1:13">
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>9948</v>
       </c>
@@ -40268,7 +40297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="973" spans="1:13">
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>9459</v>
       </c>
@@ -40309,7 +40338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="974" spans="1:13">
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>11070</v>
       </c>
@@ -40350,7 +40379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="975" spans="1:13">
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>9038</v>
       </c>
@@ -40391,7 +40420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="976" spans="1:13">
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>9946</v>
       </c>
@@ -40432,7 +40461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="977" spans="1:13">
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>8491</v>
       </c>
@@ -40473,7 +40502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="978" spans="1:13">
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>8852</v>
       </c>
@@ -40514,7 +40543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="979" spans="1:13">
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>9428</v>
       </c>
@@ -40555,7 +40584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="980" spans="1:13">
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>10151</v>
       </c>
@@ -40596,7 +40625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="981" spans="1:13">
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>10127</v>
       </c>
@@ -40637,7 +40666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="982" spans="1:13">
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>8340</v>
       </c>
@@ -40678,7 +40707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="983" spans="1:13">
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>12549</v>
       </c>
@@ -40719,7 +40748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="984" spans="1:13">
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>8891</v>
       </c>
@@ -40760,7 +40789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="985" spans="1:13">
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>11441</v>
       </c>
@@ -40801,7 +40830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="986" spans="1:13">
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>8504</v>
       </c>
@@ -40842,7 +40871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="987" spans="1:13">
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>11414</v>
       </c>
@@ -40883,7 +40912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="988" spans="1:13">
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>8173</v>
       </c>
@@ -40924,7 +40953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="989" spans="1:13">
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>8210</v>
       </c>
@@ -40965,7 +40994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="990" spans="1:13">
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>9430</v>
       </c>
@@ -41006,7 +41035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="991" spans="1:13">
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>10445</v>
       </c>
@@ -41047,7 +41076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="992" spans="1:13">
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>8539</v>
       </c>
@@ -41088,7 +41117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="993" spans="1:13">
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>11420</v>
       </c>
@@ -41129,7 +41158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="994" spans="1:13">
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>12602</v>
       </c>
@@ -41170,7 +41199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="995" spans="1:13">
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>8538</v>
       </c>
@@ -41211,7 +41240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="996" spans="1:13">
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>9138</v>
       </c>
@@ -41252,7 +41281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="997" spans="1:13">
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>9465</v>
       </c>
@@ -41293,7 +41322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="998" spans="1:13">
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>10186</v>
       </c>
@@ -41334,7 +41363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="999" spans="1:13">
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>12583</v>
       </c>
@@ -41375,7 +41404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1000" spans="1:13">
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>9547</v>
       </c>
@@ -41416,7 +41445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1001" spans="1:13">
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>8832</v>
       </c>
@@ -41457,7 +41486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1002" spans="1:13">
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>9723</v>
       </c>
@@ -41498,7 +41527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1003" spans="1:13">
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>10395</v>
       </c>
@@ -41539,7 +41568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1004" spans="1:13">
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>12835</v>
       </c>
@@ -41580,7 +41609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1005" spans="1:13">
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>9629</v>
       </c>
@@ -41621,7 +41650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1006" spans="1:13">
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>10404</v>
       </c>
@@ -41662,7 +41691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1007" spans="1:13">
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>11098</v>
       </c>
@@ -41703,7 +41732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1008" spans="1:13">
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>10335</v>
       </c>
@@ -41744,7 +41773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1009" spans="1:13">
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>11366</v>
       </c>
@@ -41785,7 +41814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1010" spans="1:13">
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>11389</v>
       </c>
@@ -41826,7 +41855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1011" spans="1:13">
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>12632</v>
       </c>
@@ -41867,7 +41896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1012" spans="1:13">
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>8239</v>
       </c>
@@ -41908,7 +41937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1013" spans="1:13">
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>8895</v>
       </c>
@@ -41949,7 +41978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1014" spans="1:13">
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>8874</v>
       </c>
@@ -41990,7 +42019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1015" spans="1:13">
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>11368</v>
       </c>
@@ -42031,7 +42060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1016" spans="1:13">
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>9559</v>
       </c>
